--- a/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>21,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 33,53</t>
+          <t>-1,03; 63,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,51</t>
+          <t>-4,66; 10,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 6,87</t>
+          <t>-5,11; 9,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 53,2</t>
+          <t>-20,93; 5,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 10,83</t>
+          <t>-1,12; 183,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 7,6</t>
+          <t>-4,6; 11,47</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 11,01</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-21,93; 6,77</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 8,84</t>
+          <t>-1,83; 14,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 17,17</t>
+          <t>1,65; 18,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 13,48</t>
+          <t>-1,42; 17,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 10,75</t>
+          <t>5,16; 28,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 22,52</t>
+          <t>-2,07; 17,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 18,05</t>
+          <t>2,08; 24,83</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 24,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 48,97</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,76</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11,95%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 24,59</t>
+          <t>7,86; 29,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 20,19</t>
+          <t>-2,9; 17,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 18,32</t>
+          <t>-2,12; 20,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 41,11</t>
+          <t>-2,82; 19,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 29,28</t>
+          <t>10,98; 52,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 27,9</t>
+          <t>-3,47; 25,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 32,82</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 32,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 11,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 18,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 14,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,29</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,49</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16,2%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,75; 20,55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,72; 14,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 12,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 17,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 30,01</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 19,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 16,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 26,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>21,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,96</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,39%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>16.81761407997086</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.416737056876261</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9813530771707435</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.892318629181903</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.2170588505709641</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.02523943953403044</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.01020544140886425</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.05292187276367619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 63,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 10,13</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 9,64</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,93; 5,8</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,12; 183,59</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 11,47</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 11,01</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-21,93; 6,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.786777095777986</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.6769361001751</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.597901682233807</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.18940918165268</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.01890979124916937</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.03676897506548125</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.04681037305686907</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2062188637660808</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>54.6948462715464</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.80929841506951</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.964843132508497</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.920503493604106</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.271281772821854</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1240475106192595</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1012863907436798</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.09766209657302979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,97%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>26,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 14,12</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 18,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 17,38</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 28,11</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 17,76</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 24,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 24,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 48,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.997248280021461</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.63872174430364</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.555403784309411</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>17.19699179826769</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.07119333016309867</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1312492687332294</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.0943745886995425</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.263617684455015</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,35</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>27,01%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.803488286624377</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.369014846014091</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.9720770757538305</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.882718114244298</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.02023639059767764</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.02935425489367167</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.01158115213511556</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.07341937413627157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>7,86; 29,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 17,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 20,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 19,85</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>10,98; 52,55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 25,94</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 32,82</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 32,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.9568158274916</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>18.29845162773869</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.76834582161949</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>27.81872314601121</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.1801395147261889</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2444432332289953</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2675048211589924</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4920147817055501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>18.56829560148275</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>5.560349564830891</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.359749312274179</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>9.214396399569601</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.287344550258942</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.07098719943809349</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1180056324373004</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1324840574120615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>6.721412859261576</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.193825455593367</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.463155231049485</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.920202243006991</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.09269020662279612</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.03840953408901411</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.01725307328523301</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.02405841907585759</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>30.58981996385218</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.62131783222485</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.04888155939231</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.84324787409614</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5615011650376804</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.2593483737458683</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3365917969090628</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3426159019287172</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>12,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>16,2%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,03%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>14,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>5,75; 20,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 14,4</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 12,12</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 17,63</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 30,01</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 19,19</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 16,14</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 26,0</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>12.22464727575412</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.508960632361461</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.742920172517108</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.0463768375344</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.161446074182416</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.09169870363416224</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.08524601050522077</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1552327373153413</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.520521380199366</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.949731506040565</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1146309676951067</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.79694088265774</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.06888732438735901</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.02258068943122372</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.001673135299458749</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.0509606208948172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>20.00581906657572</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.21893355060738</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>12.6828846698435</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>18.07908396590722</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2919517825140047</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1840164412405275</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1694133908017578</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.269543114860321</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
